--- a/assets/string/Menu.xlsx
+++ b/assets/string/Menu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Jellystastic\assets\string\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E908BE2F-49BB-4157-9C9A-D22FE60F0178}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409D9895-CFD1-4F4E-BFDA-6568E0FAC04A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1476" yWindow="636" windowWidth="17280" windowHeight="9132" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
   <si>
     <t>TituloEditor</t>
   </si>
@@ -142,6 +142,45 @@
   </si>
   <si>
     <t>Start game</t>
+  </si>
+  <si>
+    <t>TituloServidor</t>
+  </si>
+  <si>
+    <t>Servidores</t>
+  </si>
+  <si>
+    <t>Servers</t>
+  </si>
+  <si>
+    <t>Conecter</t>
+  </si>
+  <si>
+    <t>Conectar</t>
+  </si>
+  <si>
+    <t>Connect</t>
+  </si>
+  <si>
+    <t>Listado</t>
+  </si>
+  <si>
+    <t>List</t>
+  </si>
+  <si>
+    <t>Guardar</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>LimpiarData</t>
+  </si>
+  <si>
+    <t>Limpiar Data</t>
+  </si>
+  <si>
+    <t>Clear Data</t>
   </si>
 </sst>
 </file>
@@ -459,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -476,7 +515,7 @@
     <col min="13" max="13" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -519,8 +558,23 @@
       <c r="N1" t="s">
         <v>12</v>
       </c>
+      <c r="O1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S1" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -563,8 +617,23 @@
       <c r="N2" t="s">
         <v>23</v>
       </c>
+      <c r="O2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R2" t="s">
+        <v>47</v>
+      </c>
+      <c r="S2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -606,6 +675,21 @@
       </c>
       <c r="N3" t="s">
         <v>37</v>
+      </c>
+      <c r="O3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>46</v>
+      </c>
+      <c r="R3" t="s">
+        <v>48</v>
+      </c>
+      <c r="S3" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
